--- a/biology/Botanique/Abies_fraseri/Abies_fraseri.xlsx
+++ b/biology/Botanique/Abies_fraseri/Abies_fraseri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies fraseri ou sapin de Fraser est une espèce de conifères de la famille des Pinacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un arbre sempervirent, un conifère pouvant atteindre de 9 à 25 m de hauteur, avec un diamètre moyen au niveau du tronc de 30 cm[1]. Il présente un houppier étroit et des racines peu profondes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un arbre sempervirent, un conifère pouvant atteindre de 9 à 25 m de hauteur, avec un diamètre moyen au niveau du tronc de 30 cm. Il présente un houppier étroit et des racines peu profondes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sapin est endémique d'une région limitée de l'est des États-Unis. Il pousse dans des zones, élevées en altitude, du centre et du sud des Appalaches. On le trouve à l’état natif en Virginie, dans le Tennessee et en Caroline du Nord, mais il est cultivé ailleurs, notamment en Virginie-Occidentale et en Géorgie.
-Il s'agit d'une espèce relictuelle de la dernière période glaciaire, qui ne pousse plus que sur 7 à 10 crêtes montagneuses situées au-dessus de 1500 m d'altitude[2].
+Il s'agit d'une espèce relictuelle de la dernière période glaciaire, qui ne pousse plus que sur 7 à 10 crêtes montagneuses situées au-dessus de 1500 m d'altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sapin de Fraser a un rôle dans la rétention des sols peu profonds qui couvrent les pentes escarpées et humides sur lesquelles il pousse[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sapin de Fraser a un rôle dans la rétention des sols peu profonds qui couvrent les pentes escarpées et humides sur lesquelles il pousse.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite scientifiquement pour la première fois en 1813 sous le nom Pinus fraseri par le botaniste germano-américain Frederick Traugott Pursh dans le 2e volume de son ouvrage Flora Americae Septentrionalis[3].
-Le botaniste et explorateur français Jean-Louis Marie Poiret a placé cette espèce dans le genre Abies dès 1810, dans le supplément tome 5 de l'Encyclopédie méthodique (Botanique) commencé par Jean-Baptiste de Lamarck[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite scientifiquement pour la première fois en 1813 sous le nom Pinus fraseri par le botaniste germano-américain Frederick Traugott Pursh dans le 2e volume de son ouvrage Flora Americae Septentrionalis.
+Le botaniste et explorateur français Jean-Louis Marie Poiret a placé cette espèce dans le genre Abies dès 1810, dans le supplément tome 5 de l'Encyclopédie méthodique (Botanique) commencé par Jean-Baptiste de Lamarck.
 Son nom d’espèce est un hommage au botaniste britannique John Fraser.
 </t>
         </is>
@@ -639,6 +659,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,9 +686,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être cultivé et utilisé pour son bois ; il est également apprécié comme sapin de Noël, en raison de son puissant parfum citronné[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être cultivé et utilisé pour son bois ; il est également apprécié comme sapin de Noël, en raison de son puissant parfum citronné.
 </t>
         </is>
       </c>
